--- a/BugReports&TestCases.xlsx
+++ b/BugReports&TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21420" windowHeight="12240"/>
+    <workbookView windowWidth="19185" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="BugReports" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="220">
   <si>
     <t>Category</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Value2</t>
   </si>
   <si>
+    <t>Value4</t>
+  </si>
+  <si>
     <t>Value3</t>
   </si>
   <si>
-    <t>Value4</t>
-  </si>
-  <si>
     <t>Value5</t>
   </si>
   <si>
@@ -104,16 +104,16 @@
     <t>ID number</t>
   </si>
   <si>
-    <t>ID-001</t>
-  </si>
-  <si>
-    <t>ID-002</t>
-  </si>
-  <si>
-    <t>ID-003</t>
-  </si>
-  <si>
-    <t>ID-004</t>
+    <t>TC1.9</t>
+  </si>
+  <si>
+    <t>TC-1.17</t>
+  </si>
+  <si>
+    <t>TC-1.18</t>
+  </si>
+  <si>
+    <t>TC-2.2</t>
   </si>
   <si>
     <t>ID-005</t>
@@ -188,10 +188,13 @@
     <t>The forgotten password page is a few seconds late</t>
   </si>
   <si>
+    <t>Registration page can't be reached</t>
+  </si>
+  <si>
     <t>Can be registered with fictional mail, registration does't send mail to confirm authentication</t>
   </si>
   <si>
-    <t>Registration page can't be reached</t>
+    <t>Help icon in the registered profile doesn't lead to correct page</t>
   </si>
   <si>
     <t>Reporter</t>
@@ -209,10 +212,10 @@
     <t>4. maj 2020. godine, 11:00</t>
   </si>
   <si>
+    <t>8. maj 2020. godine, 09:15</t>
+  </si>
+  <si>
     <t>4. maj 2020. godine, 11:10</t>
-  </si>
-  <si>
-    <t>8. maj 2020. godine, 09:15</t>
   </si>
   <si>
     <t>10. maj 2020. godine, 11:10</t>
@@ -272,13 +275,13 @@
   </si>
   <si>
     <t>1.Open browser
+2.Input URL:https://sandbox.2checkout.com/sandbox 3.Click "SignUp" link</t>
+  </si>
+  <si>
+    <t>1.Open browser
 2.Input URL:https://sandbox.2checkout.com/sandbox 3.Click "SignUp" link
 4.Input random username, email, password, again password, choose "Tell us something about yourself"
 5.Click "Sign up" button</t>
-  </si>
-  <si>
-    <t>1.Open browser
-2.Input URL:https://sandbox.2checkout.com/sandbox 3.Click "SignUp" link</t>
   </si>
   <si>
     <t xml:space="preserve">1.Open browser
@@ -299,12 +302,12 @@
     <t>Open directly forgot password page</t>
   </si>
   <si>
+    <t>Open registration page</t>
+  </si>
+  <si>
     <t>Send confirmation email</t>
   </si>
   <si>
-    <t>Open registration page</t>
-  </si>
-  <si>
     <t>Open help page</t>
   </si>
   <si>
@@ -317,12 +320,12 @@
     <t>Open the page with the text "This page isn't working" and then open the correct page</t>
   </si>
   <si>
+    <t>Doesn't open correct page, instead registration page the page that is opened is 2CHECKOUT pricing</t>
+  </si>
+  <si>
     <t>Doesn't send any mail to confirm authentication of a mail</t>
   </si>
   <si>
-    <t>Doesn't open correct page, instead registration page the page that is opened is 2CHECKOUT pricing</t>
-  </si>
-  <si>
     <t>Open support page</t>
   </si>
   <si>
@@ -377,6 +380,220 @@
     <t>TC-1.1</t>
   </si>
   <si>
+    <t>HTTPS protocol appear as part of the URL</t>
+  </si>
+  <si>
+    <t>Hypertext transfer protocol secure appear as part of the URL</t>
+  </si>
+  <si>
+    <t>Hypertext transfer protocol secure did appear as part of the URL</t>
+  </si>
+  <si>
+    <t>TC-1.2</t>
+  </si>
+  <si>
+    <t>Logo "2CHECKOUT" displayed</t>
+  </si>
+  <si>
+    <t>Logo should be in the left top corrner</t>
+  </si>
+  <si>
+    <t>Logo is in the left top corrner</t>
+  </si>
+  <si>
+    <t>TC-1.3</t>
+  </si>
+  <si>
+    <t>Logo "2CHECKOUT" functionality</t>
+  </si>
+  <si>
+    <t>Logo should lead to 2CHECKOUT page</t>
+  </si>
+  <si>
+    <t>Logo lead to 2CHECKOUT page</t>
+  </si>
+  <si>
+    <t>TC-1.4</t>
+  </si>
+  <si>
+    <t>Question mark icon displayed</t>
+  </si>
+  <si>
+    <t>Question mark icon should be in the top right corrner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question mark icon is in the top right corner
+</t>
+  </si>
+  <si>
+    <t>TC-1.5</t>
+  </si>
+  <si>
+    <t>Content of a question mark icon</t>
+  </si>
+  <si>
+    <t>Question mark contant should have next links: E-mail techsupport@2co.com, Support, Contact Us, Knowledge Base, Documentation</t>
+  </si>
+  <si>
+    <t>Question mark icon have expected content</t>
+  </si>
+  <si>
+    <t>TC-1.6</t>
+  </si>
+  <si>
+    <t>Question mark icon - E-mail techsupport@2co.com functionality</t>
+  </si>
+  <si>
+    <t>E-mail should lead to the page where we can sent directly mail to techsupport</t>
+  </si>
+  <si>
+    <t>E-mail lead to the page where we can sent directly mail to techsupport</t>
+  </si>
+  <si>
+    <t>TC-1.7</t>
+  </si>
+  <si>
+    <t>Question mark icon - "Support" functionality</t>
+  </si>
+  <si>
+    <t>"Support" link should lead to the Merchant Support page</t>
+  </si>
+  <si>
+    <t>"Support" link lead to the Merchant Support page</t>
+  </si>
+  <si>
+    <t>TC-1.8</t>
+  </si>
+  <si>
+    <t>Question mark icon - "Contact Us" functionality</t>
+  </si>
+  <si>
+    <t>"Contact Us" link should lead to contact information</t>
+  </si>
+  <si>
+    <t>"Contact Us" link lead to contact information</t>
+  </si>
+  <si>
+    <t>TC-1.9</t>
+  </si>
+  <si>
+    <t>Question mark icon - "Knowledge Base" functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Knowledge Base" link should lead to information about used tools </t>
+  </si>
+  <si>
+    <t>This action failed - this site can't be reached</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>TC-1.10</t>
+  </si>
+  <si>
+    <t>Question mark icon - "Documentation" functionality</t>
+  </si>
+  <si>
+    <t>"Documentation" link shoud lead to @CHECKOUT documentation</t>
+  </si>
+  <si>
+    <t>"Documentation" link lead to @CHECKOUT documentation</t>
+  </si>
+  <si>
+    <t>TC-1.11</t>
+  </si>
+  <si>
+    <t>"Tearms Of Use" displayed</t>
+  </si>
+  <si>
+    <t>Link "Tearms Of Use" should be in the bottom right corrner</t>
+  </si>
+  <si>
+    <t>Link "Tearms Of Use" is in the bottom right corner</t>
+  </si>
+  <si>
+    <t>TC-1.12</t>
+  </si>
+  <si>
+    <t>"Tearms Of Use" functionality</t>
+  </si>
+  <si>
+    <t>Link "Tearms Of Use" should lead to tearms of use page</t>
+  </si>
+  <si>
+    <t>Link "Tearms Of Use" lead to tearms of use page</t>
+  </si>
+  <si>
+    <t>TC-1.13</t>
+  </si>
+  <si>
+    <t>"Privacy Policy" displayed</t>
+  </si>
+  <si>
+    <t>Link "Privacy Policy" should be in the bottom right corrner</t>
+  </si>
+  <si>
+    <t>Link "Privacy Policy" is in the bottom right corner</t>
+  </si>
+  <si>
+    <t>TC-1.14</t>
+  </si>
+  <si>
+    <t>"Privacy Policy" functionality</t>
+  </si>
+  <si>
+    <t>Link "Privacy Policy" should lead to tearms of use page</t>
+  </si>
+  <si>
+    <t>Link "Privacy Policy" lead to tearms of use page</t>
+  </si>
+  <si>
+    <t>TC-1.15</t>
+  </si>
+  <si>
+    <t>Login form displayed</t>
+  </si>
+  <si>
+    <t>Login form should be in the center area of the page</t>
+  </si>
+  <si>
+    <t>Login form is in the center area of the page</t>
+  </si>
+  <si>
+    <t>TC-1.16</t>
+  </si>
+  <si>
+    <t>Login form content</t>
+  </si>
+  <si>
+    <t>Login form should have: textbox "Username" and "Password", link "Forgot password?", button "Log in to your account", link "Sign up"</t>
+  </si>
+  <si>
+    <t>Login for have expected content</t>
+  </si>
+  <si>
+    <t>"Forgot password?" functionality</t>
+  </si>
+  <si>
+    <t>"Forgot password?" should lead to page where we can recover profile</t>
+  </si>
+  <si>
+    <t>"Forgot password?" page is late a few seconds. First load page with the text "This page isn't working" and then open the correct page</t>
+  </si>
+  <si>
+    <t>"Sign up" functionality</t>
+  </si>
+  <si>
+    <t>"Sign up" should lead to page with registration form</t>
+  </si>
+  <si>
+    <t>"Sign up" doesn't lead to registration form</t>
+  </si>
+  <si>
+    <t>TC-1.19</t>
+  </si>
+  <si>
     <t>Login with correct credentials</t>
   </si>
   <si>
@@ -386,7 +603,7 @@
     <t>Login passed OK</t>
   </si>
   <si>
-    <t>TC-1.2</t>
+    <t>TC-1.20</t>
   </si>
   <si>
     <t>Login with incorrect credentials</t>
@@ -398,19 +615,19 @@
     <t>Login failed</t>
   </si>
   <si>
-    <t>TC-1.3</t>
+    <t>TC-1.21</t>
   </si>
   <si>
     <t>Login without username &amp; password</t>
   </si>
   <si>
-    <t>TC-1.4</t>
+    <t>TC-1.22</t>
   </si>
   <si>
     <t>Login without username</t>
   </si>
   <si>
-    <t>TC-1.5</t>
+    <t>TC-1.23</t>
   </si>
   <si>
     <t>Login without password</t>
@@ -431,9 +648,6 @@
     <t>Register passed OK</t>
   </si>
   <si>
-    <t>TC-2.2</t>
-  </si>
-  <si>
     <t>Register with incorrect credentials</t>
   </si>
   <si>
@@ -441,9 +655,6 @@
   </si>
   <si>
     <t xml:space="preserve">Register passed OK </t>
-  </si>
-  <si>
-    <t>BUG</t>
   </si>
   <si>
     <t>TC-2.3</t>
@@ -487,12 +698,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +721,17 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -539,7 +761,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,21 +769,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,51 +784,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -637,16 +800,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,6 +814,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -666,8 +829,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -681,8 +859,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,7 +919,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF57D7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF57D7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +1057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,43 +1075,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,115 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,22 +1497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,8 +1530,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,32 +1566,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1360,20 +1585,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,134 +1617,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1520,19 +1754,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1550,61 +1784,112 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1619,34 +1904,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1705,6 +1990,7 @@
   <colors>
     <mruColors>
       <color rgb="00DDE0F8"/>
+      <color rgb="00F57D7D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1976,491 +2262,490 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1428571428571" style="35" customWidth="1"/>
+    <col min="1" max="1" width="18.1428571428571" style="52" customWidth="1"/>
     <col min="2" max="2" width="27.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="59.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="59.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="64" customWidth="1"/>
-    <col min="6" max="6" width="59.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="59.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="64" customWidth="1"/>
     <col min="7" max="7" width="64.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="20.25" spans="1:27">
-      <c r="A1" s="36" t="s">
+    <row r="1" s="48" customFormat="1" ht="20.25" spans="1:27">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="Z1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="48" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="1" ht="19.5" spans="1:27">
-      <c r="A2" s="37" t="s">
+    <row r="2" s="49" customFormat="1" ht="19.5" spans="1:27">
+      <c r="A2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AA2" s="56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" s="33" customFormat="1" ht="37.5" spans="1:7">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41" t="s">
+    <row r="3" s="50" customFormat="1" ht="37.5" spans="1:7">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41" t="s">
+      <c r="G3" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="33" t="s">
+    </row>
+    <row r="4" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41" t="s">
+      <c r="C4" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D4" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="E5" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="50" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A6" s="40" t="s">
+      <c r="G5" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="41" t="s">
+    </row>
+    <row r="6" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A6" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="B6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" s="33" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41" t="s">
+      <c r="D6" s="50" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A8" s="40" t="s">
+      <c r="E6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" s="50" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="41" t="s">
+    </row>
+    <row r="8" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A8" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41" t="s">
+      <c r="C8" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D8" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41" t="s">
+      <c r="C9" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="D9" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" s="33" customFormat="1" ht="114" customHeight="1" spans="1:7">
-      <c r="A11" s="40" t="s">
+      <c r="C10" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="D10" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" s="50" customFormat="1" ht="114" customHeight="1" spans="1:7">
+      <c r="A11" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="E11" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="F11" s="59" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41" t="s">
+      <c r="G11" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="33" t="s">
+    </row>
+    <row r="12" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="E12" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="F12" s="50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" s="33" customFormat="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41" t="s">
+      <c r="G12" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="33" t="s">
+    </row>
+    <row r="13" s="50" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="C13" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="E13" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="F13" s="50" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" s="33" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41" t="s">
+      <c r="G13" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="42"/>
-    </row>
-    <row r="15" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A15" s="40" t="s">
+    </row>
+    <row r="14" s="50" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="C14" s="59"/>
+    </row>
+    <row r="15" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A15" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="B15" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="D15" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" s="50" customFormat="1" ht="18.75" spans="1:7">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41" t="s">
+      <c r="E17" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" s="33" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="33" t="s">
+      <c r="G17" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" s="34" customFormat="1" ht="19.5" spans="1:2">
-      <c r="A18" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75"/>
+    </row>
+    <row r="18" s="51" customFormat="1" ht="19.5" spans="1:2">
+      <c r="A18" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="45"/>
+      <c r="C25" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2478,250 +2763,544 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="36.5714285714286" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.8571428571429" style="4" customWidth="1"/>
-    <col min="3" max="3" width="45.4285714285714" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.4285714285714" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.7142857142857" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.4285714285714" style="6" customWidth="1"/>
     <col min="6" max="6" width="17.8571428571429" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="19.5" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="32.25" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="E2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>120</v>
       </c>
+      <c r="D3" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="E3" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
+    <row r="4" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>120</v>
+      <c r="C4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
+    <row r="5" s="2" customFormat="1" ht="32" customHeight="1" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>121</v>
+        <v>127</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" ht="19.5" spans="1:6">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="26" t="s">
-        <v>128</v>
-      </c>
+    <row r="6" s="2" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
+        <v>135</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="26"/>
+        <v>139</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="26"/>
-      <c r="B11" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C9" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="14" t="s">
+      <c r="D9" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E9" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" ht="19.5" spans="1:6">
-      <c r="A13" s="28"/>
-      <c r="B13" s="21" t="s">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A10" s="13"/>
+      <c r="B10" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C10" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" ht="19.5" spans="1:6">
-      <c r="A14" s="30"/>
-      <c r="B14" s="14" t="s">
+      <c r="D10" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="27"/>
+      <c r="E10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A11" s="13"/>
+      <c r="B11" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A14" s="13"/>
+      <c r="B14" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A15" s="13"/>
+      <c r="B15" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A16" s="13"/>
+      <c r="B16" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="63" spans="1:6">
+      <c r="A17" s="13"/>
+      <c r="B17" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="63" spans="1:6">
+      <c r="A18" s="13"/>
+      <c r="B18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A19" s="13"/>
+      <c r="B19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A20" s="13"/>
+      <c r="B20" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A21" s="13"/>
+      <c r="B21" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A22" s="13"/>
+      <c r="B22" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A23" s="13"/>
+      <c r="B23" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="41"/>
+    </row>
+    <row r="25" ht="16.5" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="13"/>
+      <c r="B26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:6">
+      <c r="A31" s="36"/>
+      <c r="B31" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="41"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:6">
+      <c r="A32" s="47"/>
+      <c r="B32" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="A25:A31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/BugReports&TestCases.xlsx
+++ b/BugReports&TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19185" windowHeight="12240"/>
+    <workbookView windowWidth="19200" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BugReports" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="261">
   <si>
     <t>Category</t>
   </si>
@@ -113,7 +113,13 @@
     <t>TC-1.18</t>
   </si>
   <si>
-    <t>TC-2.2</t>
+    <t>TC-2.9</t>
+  </si>
+  <si>
+    <t>TC-2.16</t>
+  </si>
+  <si>
+    <t>TC-3.2</t>
   </si>
   <si>
     <t>ID-005</t>
@@ -191,6 +197,9 @@
     <t>Registration page can't be reached</t>
   </si>
   <si>
+    <t>Recovery page, reset e-mail wasn't send to the user</t>
+  </si>
+  <si>
     <t>Can be registered with fictional mail, registration does't send mail to confirm authentication</t>
   </si>
   <si>
@@ -213,6 +222,12 @@
   </si>
   <si>
     <t>8. maj 2020. godine, 09:15</t>
+  </si>
+  <si>
+    <t>8. maj 2020. godine, 09:00</t>
+  </si>
+  <si>
+    <t>8. maj 2020. godine, 09:10</t>
   </si>
   <si>
     <t>4. maj 2020. godine, 11:10</t>
@@ -276,6 +291,20 @@
   <si>
     <t>1.Open browser
 2.Input URL:https://sandbox.2checkout.com/sandbox 3.Click "SignUp" link</t>
+  </si>
+  <si>
+    <t>1.Open browser
+2.Input URL:https://sandbox.2checkout.com/sandbox
+3.Click "Forgot Password?"
+4.Click Question mark icon
+5.Click "Knowledge Base"</t>
+  </si>
+  <si>
+    <t>1.Open browser
+2.Input URL:https://sandbox.2checkout.com/sandbox
+3.Click "Forgot Password?"
+4.Input correct username
+5.Click "Send Reset Email"</t>
   </si>
   <si>
     <t>1.Open browser
@@ -305,6 +334,9 @@
     <t>Open registration page</t>
   </si>
   <si>
+    <t>Send email to the user email</t>
+  </si>
+  <si>
     <t>Send confirmation email</t>
   </si>
   <si>
@@ -323,6 +355,9 @@
     <t>Doesn't open correct page, instead registration page the page that is opened is 2CHECKOUT pricing</t>
   </si>
   <si>
+    <t>Doesn't send any mail to the user</t>
+  </si>
+  <si>
     <t>Doesn't send any mail to confirm authentication of a mail</t>
   </si>
   <si>
@@ -330,6 +365,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Only say that reset e-mail was sent but actually reset e-mail wasn't sent to the user e-mail address</t>
   </si>
   <si>
     <t>Bug tracking</t>
@@ -633,10 +671,106 @@
     <t>Login without password</t>
   </si>
   <si>
+    <t>RECOVERY PROFILE</t>
+  </si>
+  <si>
+    <t>TC-2.1</t>
+  </si>
+  <si>
+    <t>TC-2.2</t>
+  </si>
+  <si>
+    <t>TC-2.3</t>
+  </si>
+  <si>
+    <t>TC-2.4</t>
+  </si>
+  <si>
+    <t>TC-2.5</t>
+  </si>
+  <si>
+    <t>Question mark contant should be next links: E-mail techsupport@2co.com, Support, Contact Us, Knowledge Base, Documentation</t>
+  </si>
+  <si>
+    <t>TC-2.6</t>
+  </si>
+  <si>
+    <t>TC-2.7</t>
+  </si>
+  <si>
+    <t>TC-2.8</t>
+  </si>
+  <si>
+    <t>TC-2.10</t>
+  </si>
+  <si>
+    <t>TC-2.11</t>
+  </si>
+  <si>
+    <t>TC-2.12</t>
+  </si>
+  <si>
+    <t>TC-2.13</t>
+  </si>
+  <si>
+    <t>TC-2.14</t>
+  </si>
+  <si>
+    <t>TC-2.15</t>
+  </si>
+  <si>
+    <t>Recovery profile form content</t>
+  </si>
+  <si>
+    <t>Recovery profile form shoud have textbox "Username" , button "Send reset mail", link "Log in"</t>
+  </si>
+  <si>
+    <t>Recovery profile form have expected content</t>
+  </si>
+  <si>
+    <t>Recovery profile with correct credentials sent reset E-mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected for reset password E-mail to be sent to the mail address of the inputed username </t>
+  </si>
+  <si>
+    <t>Only say that reset email was sent but actually reset e-mail wasn't sent to the user email address</t>
+  </si>
+  <si>
+    <t>TC-2.17</t>
+  </si>
+  <si>
+    <t>Recovery profile with incorrect credentials</t>
+  </si>
+  <si>
+    <t>Expected for reset password to fail</t>
+  </si>
+  <si>
+    <t>Reset password failed</t>
+  </si>
+  <si>
+    <t>TC-2.18</t>
+  </si>
+  <si>
+    <t>Recovery password without username</t>
+  </si>
+  <si>
+    <t>TC-2.19</t>
+  </si>
+  <si>
+    <t>"Log in" link functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Log in" link should lead back to login form </t>
+  </si>
+  <si>
+    <t>"Log in" link lead to login form</t>
+  </si>
+  <si>
     <t>REGISTRATION PAGE</t>
   </si>
   <si>
-    <t>TC-2.1</t>
+    <t>TC-3.1</t>
   </si>
   <si>
     <t>Register with correct credentials</t>
@@ -648,7 +782,7 @@
     <t>Register passed OK</t>
   </si>
   <si>
-    <t>Register with incorrect credentials</t>
+    <t>Register with incorrect credentials (fictional mail)</t>
   </si>
   <si>
     <t>Expected register to fail</t>
@@ -657,7 +791,7 @@
     <t xml:space="preserve">Register passed OK </t>
   </si>
   <si>
-    <t>TC-2.3</t>
+    <t>TC-3.3</t>
   </si>
   <si>
     <t>Register without username</t>
@@ -666,31 +800,28 @@
     <t>Registration failed</t>
   </si>
   <si>
-    <t>TC-2.4</t>
+    <t>TC-3.4</t>
   </si>
   <si>
     <t>Register without email</t>
   </si>
   <si>
-    <t>TC-2.5</t>
+    <t>TC-3.5</t>
   </si>
   <si>
     <t>Register without password</t>
   </si>
   <si>
-    <t>TC-2.6</t>
+    <t>TC-3.6</t>
   </si>
   <si>
     <t>Register without confirm password</t>
   </si>
   <si>
-    <t>TC-2.7</t>
+    <t>TC-3.7</t>
   </si>
   <si>
     <t>Register without choosing about yourself</t>
-  </si>
-  <si>
-    <t>TC-3.1</t>
   </si>
 </sst>
 </file>
@@ -700,8 +831,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -784,16 +915,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,54 +952,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,15 +981,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,15 +1005,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,7 +1056,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF57D7D"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,25 +1098,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,43 +1146,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,13 +1182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,73 +1200,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,6 +1228,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -1493,21 +1618,6 @@
       </top>
       <bottom style="double">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1551,6 +1661,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1565,41 +1719,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1617,134 +1742,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1799,9 +1924,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1829,25 +1951,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
@@ -1871,13 +1987,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2259,493 +2387,582 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1428571428571" style="52" customWidth="1"/>
+    <col min="1" max="1" width="18.1428571428571" style="53" customWidth="1"/>
     <col min="2" max="2" width="27.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="59.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="59.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="59.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="64" customWidth="1"/>
-    <col min="7" max="7" width="64.1428571428571" customWidth="1"/>
+    <col min="5" max="7" width="59.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="64" customWidth="1"/>
+    <col min="9" max="9" width="64.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="48" customFormat="1" ht="20.25" spans="1:27">
-      <c r="A1" s="53" t="s">
+    <row r="1" s="49" customFormat="1" ht="20.25" spans="1:29">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="H1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="I1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="J1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="K1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="L1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="M1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="N1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="O1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="P1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="Q1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="R1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="S1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="T1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="U1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="V1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="W1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="X1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="Y1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="Z1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="AA1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AB1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="48" t="s">
+      <c r="AC1" s="49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" s="49" customFormat="1" ht="19.5" spans="1:27">
-      <c r="A2" s="54" t="s">
+    <row r="2" s="50" customFormat="1" ht="19.5" spans="1:29">
+      <c r="A2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="T2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AA2" s="57" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" s="50" customFormat="1" ht="37.5" spans="1:7">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58" t="s">
+      <c r="AB2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="AC2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="50" t="s">
+    </row>
+    <row r="3" s="51" customFormat="1" ht="37.5" spans="1:9">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="D3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="E3" s="51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58" t="s">
+      <c r="F3" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="H3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58" t="s">
+      <c r="I3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="50" t="s">
+    </row>
+    <row r="4" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="D4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="D5" s="51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A6" s="57" t="s">
+      <c r="E5" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="F5" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="G5" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="H5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" s="50" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58" t="s">
+      <c r="I5" s="51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A8" s="57" t="s">
+    <row r="6" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A6" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D6" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="G6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58" t="s">
+      <c r="H6" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="I6" s="51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" s="51" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58" t="s">
+    </row>
+    <row r="8" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A8" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="B8" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" s="50" customFormat="1" ht="114" customHeight="1" spans="1:7">
-      <c r="A11" s="57" t="s">
+      <c r="C8" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="D8" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C9" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D9" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="C10" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="D10" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" s="51" customFormat="1" ht="114" customHeight="1" spans="1:9">
+      <c r="A11" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="B11" s="59" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58" t="s">
+      <c r="C11" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="D11" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="E11" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="F11" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="G11" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="H11" s="60" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" s="50" customFormat="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58" t="s">
+      <c r="I11" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="50" t="s">
+    </row>
+    <row r="12" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="C12" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="D12" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="E12" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="F12" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" s="50" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58" t="s">
+      <c r="H12" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="59"/>
-    </row>
-    <row r="15" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A15" s="57" t="s">
+      <c r="I12" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="58" t="s">
+    </row>
+    <row r="13" s="51" customFormat="1" ht="41" customHeight="1" spans="1:9">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C13" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D13" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E13" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="50" t="s">
+      <c r="F13" s="51" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58" t="s">
+      <c r="G13" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="H13" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" s="50" customFormat="1" ht="18.75" spans="1:7">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58" t="s">
+      <c r="I13" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="50" t="s">
+    </row>
+    <row r="14" s="51" customFormat="1" ht="37.5" spans="1:7">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" s="51" customFormat="1" ht="19.5" spans="1:2">
-      <c r="A18" s="60" t="s">
+      <c r="C14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="61" t="s">
-        <v>109</v>
-      </c>
-    </row>
+    </row>
+    <row r="15" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A15" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" s="51" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" s="52" customFormat="1" ht="19.5" spans="1:2">
+      <c r="A18" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75"/>
     <row r="25" spans="3:3">
-      <c r="C25" s="62"/>
+      <c r="C25" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2763,10 +2980,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -2781,526 +2998,835 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="32.25" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="18"/>
+        <v>132</v>
+      </c>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="32" customHeight="1" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="66" customHeight="1" spans="1:6">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="18"/>
+        <v>142</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="18"/>
+        <v>150</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="18"/>
+        <v>154</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A10" s="13"/>
-      <c r="B10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>151</v>
+      <c r="B10" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A11" s="13"/>
-      <c r="B11" s="26" t="s">
-        <v>152</v>
+      <c r="B11" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="18"/>
+        <v>163</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A12" s="13"/>
-      <c r="B12" s="26" t="s">
-        <v>156</v>
+      <c r="B12" s="25" t="s">
+        <v>166</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="18"/>
+        <v>167</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A13" s="13"/>
-      <c r="B13" s="26" t="s">
-        <v>160</v>
+      <c r="B13" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A14" s="13"/>
-      <c r="B14" s="26" t="s">
-        <v>164</v>
+      <c r="B14" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="18"/>
+        <v>175</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A15" s="13"/>
-      <c r="B15" s="26" t="s">
-        <v>168</v>
+      <c r="B15" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="18"/>
+        <v>179</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A16" s="13"/>
-      <c r="B16" s="26" t="s">
-        <v>172</v>
+      <c r="B16" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="18"/>
+        <v>183</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="63" spans="1:6">
       <c r="A17" s="13"/>
-      <c r="B17" s="26" t="s">
-        <v>176</v>
+      <c r="B17" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="63" spans="1:6">
       <c r="A18" s="13"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>151</v>
+      <c r="C18" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A19" s="13"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>151</v>
+      <c r="C19" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A20" s="13"/>
-      <c r="B20" s="26" t="s">
-        <v>186</v>
+      <c r="B20" s="25" t="s">
+        <v>196</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20" s="18"/>
+        <v>198</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A21" s="13"/>
-      <c r="B21" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="F21" s="18"/>
+      <c r="B21" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A22" s="13"/>
-      <c r="B22" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="F22" s="18"/>
+      <c r="B22" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A23" s="13"/>
-      <c r="B23" s="26" t="s">
-        <v>196</v>
+      <c r="B23" s="25" t="s">
+        <v>206</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>193</v>
+        <v>207</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F24" s="41"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="33" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="E24" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>204</v>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="32.25" spans="1:6">
+      <c r="A25" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="21" t="s">
+    <row r="26" s="2" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A26" s="39"/>
+      <c r="B26" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A27" s="39"/>
+      <c r="B27" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="47.25" spans="1:6">
+      <c r="A28" s="39"/>
+      <c r="B28" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="63" spans="1:6">
+      <c r="A29" s="39"/>
+      <c r="B29" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A30" s="39"/>
+      <c r="B30" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A31" s="39"/>
+      <c r="B31" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A32" s="39"/>
+      <c r="B32" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A33" s="39"/>
+      <c r="B33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="1:6">
-      <c r="A31" s="36"/>
-      <c r="B31" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="41"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:6">
-      <c r="A32" s="47"/>
-      <c r="B32" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="16"/>
+      <c r="C33" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A34" s="39"/>
+      <c r="B34" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A35" s="39"/>
+      <c r="B35" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A36" s="39"/>
+      <c r="B36" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A37" s="39"/>
+      <c r="B37" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A38" s="39"/>
+      <c r="B38" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="47.25" spans="1:6">
+      <c r="A39" s="39"/>
+      <c r="B39" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="47.25" spans="1:6">
+      <c r="A40" s="39"/>
+      <c r="B40" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A41" s="39"/>
+      <c r="B41" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="18.75" spans="1:6">
+      <c r="A42" s="39"/>
+      <c r="B42" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="19.5" spans="1:6">
+      <c r="A43" s="43"/>
+      <c r="B43" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" ht="16.5" spans="1:6">
+      <c r="A44" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="13"/>
+      <c r="B45" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="1:6">
+      <c r="A50" s="33"/>
+      <c r="B50" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" s="38"/>
+    </row>
+    <row r="51" ht="16.5" spans="1:6">
+      <c r="A51" s="48"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A24"/>
-    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A44:A50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/BugReports&TestCases.xlsx
+++ b/BugReports&TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12240" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="BugReports" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="263">
   <si>
     <t>Category</t>
   </si>
@@ -29,12 +29,12 @@
     <t>Value2</t>
   </si>
   <si>
+    <t>Value3</t>
+  </si>
+  <si>
     <t>Value4</t>
   </si>
   <si>
-    <t>Value3</t>
-  </si>
-  <si>
     <t>Value5</t>
   </si>
   <si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Value25</t>
+  </si>
+  <si>
+    <t>Value26</t>
+  </si>
+  <si>
+    <t>Value27</t>
   </si>
   <si>
     <t>Bug ID</t>
@@ -829,9 +835,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -891,67 +897,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -968,45 +913,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,6 +927,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1029,7 +944,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,13 +1062,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,37 +1104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,73 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,13 +1140,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,19 +1224,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,17 +1628,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1661,6 +1661,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1668,15 +1683,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1724,15 +1730,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1742,134 +1748,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1987,20 +1993,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2389,13 +2386,13 @@
   <sheetPr/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1428571428571" style="53" customWidth="1"/>
+    <col min="1" max="1" width="18.1428571428571" style="50" customWidth="1"/>
     <col min="2" max="2" width="27.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="59.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="59.2857142857143" customWidth="1"/>
@@ -2404,565 +2401,571 @@
     <col min="9" max="9" width="64.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="49" customFormat="1" ht="20.25" spans="1:29">
-      <c r="A1" s="54" t="s">
+    <row r="1" s="46" customFormat="1" ht="20.25" spans="1:29">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="K1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="L1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="M1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="N1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="O1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="P1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="Q1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="R1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="S1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="T1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="49" t="s">
+      <c r="U1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="49" t="s">
+      <c r="V1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="49" t="s">
+      <c r="W1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="49" t="s">
+      <c r="X1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="49" t="s">
+      <c r="Y1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="49" t="s">
+      <c r="Z1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="49" t="s">
+      <c r="AA1" s="46" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" s="50" customFormat="1" ht="19.5" spans="1:29">
-      <c r="A2" s="55" t="s">
+      <c r="AB1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="AC1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="57" t="s">
+    </row>
+    <row r="2" s="47" customFormat="1" ht="19.5" spans="1:29">
+      <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="B2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="C2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="D2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="E2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="F2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="G2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="H2" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="I2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="J2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="K2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="M2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="N2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="57" t="s">
+      <c r="O2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="P2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="57" t="s">
+      <c r="Q2" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="R2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="57" t="s">
+      <c r="S2" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="57" t="s">
+      <c r="T2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="57" t="s">
+      <c r="U2" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="57" t="s">
+      <c r="V2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="57" t="s">
+      <c r="W2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="57" t="s">
+      <c r="X2" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="57" t="s">
+      <c r="Y2" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="57" t="s">
+      <c r="Z2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="57" t="s">
+      <c r="AA2" s="54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" s="51" customFormat="1" ht="37.5" spans="1:9">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59" t="s">
+      <c r="AB2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="AC2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="51" t="s">
+    </row>
+    <row r="3" s="48" customFormat="1" ht="37.5" spans="1:9">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="C3" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="51" t="s">
+      <c r="D3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="E3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="F3" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59" t="s">
+      <c r="H3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="I3" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59" t="s">
+    </row>
+    <row r="4" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C4" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="C5" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="D5" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="E5" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="F5" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="G5" s="48" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A6" s="58" t="s">
+      <c r="H5" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="I5" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="51" t="s">
+    </row>
+    <row r="6" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A6" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" s="51" customFormat="1" ht="18.75" spans="1:2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59" t="s">
+      <c r="C6" s="48" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A8" s="58" t="s">
+      <c r="D6" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="E6" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" s="48" customFormat="1" ht="18.75" spans="1:2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="51" t="s">
+    </row>
+    <row r="8" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A8" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59" t="s">
+      <c r="B8" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C8" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D8" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E8" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F8" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G8" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H8" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I8" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59" t="s">
+    <row r="9" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C9" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D9" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E9" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F9" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G9" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H9" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I9" s="48" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" s="51" customFormat="1" ht="114" customHeight="1" spans="1:9">
-      <c r="A11" s="58" t="s">
+    <row r="10" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="C10" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="D10" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" s="48" customFormat="1" ht="114" customHeight="1" spans="1:9">
+      <c r="A11" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="B11" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="C11" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="D11" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="E11" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="60" t="s">
+      <c r="F11" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="G11" s="57" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59" t="s">
+      <c r="H11" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="I11" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="51" t="s">
+    </row>
+    <row r="12" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="C12" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="51" t="s">
+      <c r="D12" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="E12" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="F12" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="48" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" s="51" customFormat="1" ht="41" customHeight="1" spans="1:9">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59" t="s">
+      <c r="H12" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="I12" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="60" t="s">
+    </row>
+    <row r="13" s="48" customFormat="1" ht="41" customHeight="1" spans="1:9">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="C13" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="51" t="s">
+      <c r="D13" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="E13" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="F13" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="48" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" s="51" customFormat="1" ht="37.5" spans="1:7">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59" t="s">
+      <c r="H13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60" t="s">
+      <c r="I13" s="48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A15" s="58" t="s">
+    <row r="14" s="48" customFormat="1" ht="37.5" spans="1:7">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="C14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="51" t="s">
+    </row>
+    <row r="15" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A15" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="B15" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="C15" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="51" t="s">
+      <c r="D15" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="G15" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="51" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59" t="s">
+    </row>
+    <row r="16" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A16" s="55"/>
+      <c r="B16" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" s="48" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="E17" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="H17" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" s="51" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" s="52" customFormat="1" ht="19.5" spans="1:2">
-      <c r="A18" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>119</v>
+      <c r="I17" s="48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" s="49" customFormat="1" ht="19.5" spans="1:2">
+      <c r="A18" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19" ht="15.75"/>
     <row r="25" spans="3:3">
-      <c r="C25" s="63"/>
+      <c r="C25" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2982,7 +2985,7 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -2998,824 +3001,824 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="32.25" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F4" s="16"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="32" customHeight="1" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="66" customHeight="1" spans="1:6">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F7" s="16"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A11" s="13"/>
       <c r="B11" s="25" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F14" s="16"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F15" s="16"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F16" s="16"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="63" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="63" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F20" s="16"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="E22" s="26" t="s">
         <v>205</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>203</v>
       </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A24" s="33"/>
       <c r="B24" s="34" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F24" s="38"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="32.25" spans="1:6">
-      <c r="A25" s="39" t="s">
-        <v>210</v>
+      <c r="A25" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="18.75" spans="1:6">
-      <c r="A26" s="39"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="18.75" spans="1:6">
-      <c r="A27" s="39"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="47.25" spans="1:6">
-      <c r="A28" s="39"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="63" spans="1:6">
-      <c r="A29" s="39"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="25" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="31.5" spans="1:6">
-      <c r="A30" s="39"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="31.5" spans="1:6">
-      <c r="A31" s="39"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="31.5" spans="1:6">
-      <c r="A32" s="39"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="31.5" spans="1:6">
-      <c r="A33" s="39"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="31.5" spans="1:6">
-      <c r="A34" s="39"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A35" s="13"/>
+      <c r="B35" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A36" s="13"/>
+      <c r="B36" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A37" s="13"/>
+      <c r="B37" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="31.5" spans="1:6">
+      <c r="A38" s="13"/>
+      <c r="B38" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="47.25" spans="1:6">
+      <c r="A39" s="13"/>
+      <c r="B39" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="47.25" spans="1:6">
+      <c r="A40" s="13"/>
+      <c r="B40" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="31.5" spans="1:6">
-      <c r="A35" s="39"/>
-      <c r="B35" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="31.5" spans="1:6">
-      <c r="A36" s="39"/>
-      <c r="B36" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="31.5" spans="1:6">
-      <c r="A37" s="39"/>
-      <c r="B37" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="31.5" spans="1:6">
-      <c r="A38" s="39"/>
-      <c r="B38" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="47.25" spans="1:6">
-      <c r="A39" s="39"/>
-      <c r="B39" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="47.25" spans="1:6">
-      <c r="A40" s="39"/>
-      <c r="B40" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="18.75" spans="1:6">
-      <c r="A41" s="39"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="18.75" spans="1:6">
-      <c r="A42" s="39"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="19.5" spans="1:6">
-      <c r="A43" s="43"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F43" s="38"/>
     </row>
     <row r="44" ht="16.5" spans="1:6">
       <c r="A44" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="13"/>
       <c r="B45" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="E45" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="F45" s="40" t="s">
-        <v>161</v>
+      <c r="D45" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="13"/>
       <c r="B46" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="E46" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="13"/>
       <c r="B47" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="13"/>
       <c r="B48" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="13"/>
       <c r="B49" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="1:6">
       <c r="A50" s="33"/>
-      <c r="B50" s="46" t="s">
-        <v>259</v>
+      <c r="B50" s="43" t="s">
+        <v>261</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>252</v>
+        <v>250</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>254</v>
       </c>
       <c r="F50" s="38"/>
     </row>
     <row r="51" ht="16.5" spans="1:6">
-      <c r="A51" s="48"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="14"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>

--- a/BugReports&TestCases.xlsx
+++ b/BugReports&TestCases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="240">
   <si>
     <t>Category</t>
   </si>
@@ -98,19 +98,13 @@
     <t>Value25</t>
   </si>
   <si>
-    <t>Value26</t>
-  </si>
-  <si>
-    <t>Value27</t>
-  </si>
-  <si>
     <t>Bug ID</t>
   </si>
   <si>
     <t>ID number</t>
   </si>
   <si>
-    <t>TC1.9</t>
+    <t>TC-1.9</t>
   </si>
   <si>
     <t>TC-1.17</t>
@@ -128,79 +122,19 @@
     <t>TC-3.2</t>
   </si>
   <si>
-    <t>ID-005</t>
-  </si>
-  <si>
-    <t>ID-006</t>
-  </si>
-  <si>
-    <t>ID-007</t>
-  </si>
-  <si>
-    <t>ID-008</t>
-  </si>
-  <si>
-    <t>ID-009</t>
-  </si>
-  <si>
-    <t>ID-010</t>
-  </si>
-  <si>
-    <t>ID-011</t>
-  </si>
-  <si>
-    <t>ID-012</t>
-  </si>
-  <si>
-    <t>ID-013</t>
-  </si>
-  <si>
-    <t>ID-014</t>
-  </si>
-  <si>
-    <t>ID-015</t>
-  </si>
-  <si>
-    <t>ID-016</t>
-  </si>
-  <si>
-    <t>ID-017</t>
-  </si>
-  <si>
-    <t>ID-018</t>
-  </si>
-  <si>
-    <t>ID-019</t>
-  </si>
-  <si>
-    <t>ID-020</t>
-  </si>
-  <si>
-    <t>ID-021</t>
-  </si>
-  <si>
-    <t>ID-022</t>
-  </si>
-  <si>
-    <t>ID-023</t>
-  </si>
-  <si>
-    <t>ID-024</t>
-  </si>
-  <si>
-    <t>ID-025</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
+    <t>The "Knowledge Base" link doesn't lead to correct page (the site can't be reached)</t>
+  </si>
+  <si>
+    <t>The forgotten password page is a few seconds late</t>
+  </si>
+  <si>
+    <t>Registration page can't be reached</t>
+  </si>
+  <si>
     <t>Knowledge Base page - null pointer</t>
-  </si>
-  <si>
-    <t>The forgotten password page is a few seconds late</t>
-  </si>
-  <si>
-    <t>Registration page can't be reached</t>
   </si>
   <si>
     <t>Recovery page, reset e-mail wasn't send to the user</t>
@@ -516,9 +450,6 @@
   </si>
   <si>
     <t>"Contact Us" link lead to contact information</t>
-  </si>
-  <si>
-    <t>TC-1.9</t>
   </si>
   <si>
     <t>Question mark icon - "Knowledge Base" functionality</t>
@@ -897,16 +828,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,7 +843,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,6 +866,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -944,46 +888,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -995,9 +902,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1013,15 +935,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,8 +948,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,13 +993,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1023,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,79 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,13 +1095,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1119,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,13 +1149,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,19 +1173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,6 +1555,30 @@
       </top>
       <bottom style="double">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1641,36 +1596,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1702,26 +1642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1730,148 +1661,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2386,8 +2317,8 @@
   <sheetPr/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2401,7 +2332,7 @@
     <col min="9" max="9" width="64.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="46" customFormat="1" ht="20.25" spans="1:29">
+    <row r="1" s="46" customFormat="1" ht="20.25" spans="1:27">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -2483,484 +2414,436 @@
       <c r="AA1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="46" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2" s="47" customFormat="1" ht="19.5" spans="1:29">
       <c r="A2" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="D2" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="E2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="G2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="H2" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="V2" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="54" t="s">
-        <v>57</v>
-      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
     </row>
     <row r="3" s="48" customFormat="1" ht="37.5" spans="1:9">
       <c r="A3" s="55"/>
       <c r="B3" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A4" s="55"/>
       <c r="B4" s="56" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I4" s="48" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A5" s="55"/>
       <c r="B5" s="56" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A6" s="55" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" s="48" customFormat="1" ht="18.75" spans="1:2">
       <c r="A7" s="55"/>
       <c r="B7" s="56" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A8" s="55" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I8" s="48" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A9" s="55"/>
       <c r="B9" s="56" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A10" s="55"/>
       <c r="B10" s="56" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" s="48" customFormat="1" ht="114" customHeight="1" spans="1:9">
       <c r="A11" s="55" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A12" s="55"/>
       <c r="B12" s="56" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" s="48" customFormat="1" ht="41" customHeight="1" spans="1:9">
       <c r="A13" s="55"/>
       <c r="B13" s="56" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" s="48" customFormat="1" ht="37.5" spans="1:7">
       <c r="A14" s="55"/>
       <c r="B14" s="56" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C14" s="57"/>
       <c r="F14" s="57"/>
       <c r="G14" s="57" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A15" s="55" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A16" s="55"/>
       <c r="B16" s="56" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" s="48" customFormat="1" ht="18.75" spans="1:9">
       <c r="A17" s="55"/>
       <c r="B17" s="56" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" s="49" customFormat="1" ht="19.5" spans="1:2">
       <c r="A18" s="58" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" ht="15.75"/>
@@ -3001,819 +2884,819 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="32.25" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F4" s="16"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="32" customHeight="1" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="66" customHeight="1" spans="1:6">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F7" s="16"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="14" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="20" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A11" s="13"/>
       <c r="B11" s="25" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="25" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="25" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="25" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F14" s="16"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="25" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F15" s="16"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="25" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="F16" s="16"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="63" spans="1:6">
       <c r="A17" s="13"/>
       <c r="B17" s="25" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="63" spans="1:6">
       <c r="A18" s="13"/>
       <c r="B18" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A20" s="13"/>
       <c r="B20" s="25" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="F20" s="16"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A21" s="13"/>
       <c r="B21" s="25" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F21" s="16"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="25" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F22" s="16"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A23" s="13"/>
       <c r="B23" s="25" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A24" s="33"/>
       <c r="B24" s="34" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="F24" s="38"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="32.25" spans="1:6">
       <c r="A25" s="13" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F25" s="16"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A26" s="13"/>
       <c r="B26" s="25" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A27" s="13"/>
       <c r="B27" s="25" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="47.25" spans="1:6">
       <c r="A28" s="13"/>
       <c r="B28" s="25" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="63" spans="1:6">
       <c r="A29" s="13"/>
       <c r="B29" s="25" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A30" s="13"/>
       <c r="B30" s="25" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A31" s="13"/>
       <c r="B31" s="25" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A32" s="13"/>
       <c r="B32" s="25" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A33" s="13"/>
       <c r="B33" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A34" s="13"/>
       <c r="B34" s="25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A35" s="13"/>
       <c r="B35" s="25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="F35" s="7"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A36" s="13"/>
       <c r="B36" s="25" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A37" s="13"/>
       <c r="B37" s="25" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F37" s="7"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="31.5" spans="1:6">
       <c r="A38" s="13"/>
       <c r="B38" s="25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F38" s="7"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="47.25" spans="1:6">
       <c r="A39" s="13"/>
       <c r="B39" s="25" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="F39" s="7"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="47.25" spans="1:6">
       <c r="A40" s="13"/>
       <c r="B40" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A41" s="13"/>
       <c r="B41" s="25" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="18.75" spans="1:6">
       <c r="A42" s="13"/>
       <c r="B42" s="25" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="19.5" spans="1:6">
       <c r="A43" s="33"/>
       <c r="B43" s="34" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="F43" s="38"/>
     </row>
     <row r="44" ht="16.5" spans="1:6">
       <c r="A44" s="13" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="13"/>
       <c r="B45" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="13"/>
       <c r="B46" s="14" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="13"/>
       <c r="B47" s="14" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="13"/>
       <c r="B48" s="14" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="13"/>
       <c r="B49" s="14" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="1:6">
       <c r="A50" s="33"/>
       <c r="B50" s="43" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="E50" s="44" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="F50" s="38"/>
     </row>

--- a/BugReports&TestCases.xlsx
+++ b/BugReports&TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="12240"/>
+    <workbookView windowWidth="19200" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BugReports" sheetId="1" r:id="rId1"/>
@@ -766,10 +766,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -817,6 +817,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -842,15 +843,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,7 +861,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,32 +934,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,37 +957,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -964,11 +965,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -993,25 +994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,49 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1048,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,85 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,48 +1556,6 @@
       </top>
       <bottom style="double">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1618,11 +1577,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,17 +1629,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,12 +1665,12 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1679,130 +1680,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1948,7 +1949,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2317,8 +2318,8 @@
   <sheetPr/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2330,6 +2331,7 @@
     <col min="5" max="7" width="59.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
     <col min="9" max="9" width="64.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="54.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="46" customFormat="1" ht="20.25" spans="1:27">
@@ -2868,7 +2870,7 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
